--- a/Code/Results/Cases/Case_0_185/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_185/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.043287092105101</v>
+        <v>1.094071069442351</v>
       </c>
       <c r="D2">
-        <v>1.057674211280318</v>
+        <v>1.103187924996851</v>
       </c>
       <c r="E2">
-        <v>1.0528706365395</v>
+        <v>1.096301590472927</v>
       </c>
       <c r="F2">
-        <v>1.063459102051751</v>
+        <v>1.108846364610936</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058001515831832</v>
+        <v>1.053604028957512</v>
       </c>
       <c r="J2">
-        <v>1.064245920721202</v>
+        <v>1.098883946698112</v>
       </c>
       <c r="K2">
-        <v>1.068384536484009</v>
+        <v>1.105803214681202</v>
       </c>
       <c r="L2">
-        <v>1.063639447617445</v>
+        <v>1.098934205993554</v>
       </c>
       <c r="M2">
-        <v>1.074099863175277</v>
+        <v>1.111447591181064</v>
       </c>
       <c r="N2">
-        <v>1.065757271999339</v>
+        <v>1.100444487946174</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.051797423396647</v>
+        <v>1.095758898455463</v>
       </c>
       <c r="D3">
-        <v>1.065569021314287</v>
+        <v>1.104798694076407</v>
       </c>
       <c r="E3">
-        <v>1.060283478873769</v>
+        <v>1.097812361163865</v>
       </c>
       <c r="F3">
-        <v>1.071299353476836</v>
+        <v>1.110449758719594</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060456545293963</v>
+        <v>1.053990585244522</v>
       </c>
       <c r="J3">
-        <v>1.070969159774851</v>
+        <v>1.100234829013666</v>
       </c>
       <c r="K3">
-        <v>1.075426430001915</v>
+        <v>1.107234578643671</v>
       </c>
       <c r="L3">
-        <v>1.070199025626142</v>
+        <v>1.100264538837072</v>
       </c>
       <c r="M3">
-        <v>1.081094526439211</v>
+        <v>1.112872624939537</v>
       </c>
       <c r="N3">
-        <v>1.072490058823611</v>
+        <v>1.101797288669565</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.057129318293123</v>
+        <v>1.09684916059328</v>
       </c>
       <c r="D4">
-        <v>1.070520225243147</v>
+        <v>1.105839368930465</v>
       </c>
       <c r="E4">
-        <v>1.064932848695942</v>
+        <v>1.098788358818665</v>
       </c>
       <c r="F4">
-        <v>1.076217223754197</v>
+        <v>1.111485712854964</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061980632700319</v>
+        <v>1.054238481853003</v>
       </c>
       <c r="J4">
-        <v>1.075176535621015</v>
+        <v>1.101106647990318</v>
       </c>
       <c r="K4">
-        <v>1.07983599043744</v>
+        <v>1.108158665330631</v>
       </c>
       <c r="L4">
-        <v>1.074306006951716</v>
+        <v>1.10112326310644</v>
       </c>
       <c r="M4">
-        <v>1.085475216620235</v>
+        <v>1.113792663249054</v>
       </c>
       <c r="N4">
-        <v>1.076703409626069</v>
+        <v>1.102670345729162</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.059331544454471</v>
+        <v>1.097307068447647</v>
       </c>
       <c r="D5">
-        <v>1.072566322754056</v>
+        <v>1.106276495064707</v>
       </c>
       <c r="E5">
-        <v>1.066854297302997</v>
+        <v>1.099198300749229</v>
       </c>
       <c r="F5">
-        <v>1.078249746818937</v>
+        <v>1.111920866537427</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06260669359626</v>
+        <v>1.054342166342648</v>
       </c>
       <c r="J5">
-        <v>1.076913069434893</v>
+        <v>1.101472620504057</v>
       </c>
       <c r="K5">
-        <v>1.081656636183844</v>
+        <v>1.108546657153148</v>
       </c>
       <c r="L5">
-        <v>1.076001579439862</v>
+        <v>1.10148377868933</v>
       </c>
       <c r="M5">
-        <v>1.087284103525339</v>
+        <v>1.114178964418706</v>
       </c>
       <c r="N5">
-        <v>1.078442409517146</v>
+        <v>1.103036837965848</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.059699073240584</v>
+        <v>1.097383927798638</v>
       </c>
       <c r="D6">
-        <v>1.072907858256913</v>
+        <v>1.106349868836592</v>
       </c>
       <c r="E6">
-        <v>1.06717503083404</v>
+        <v>1.099267110510061</v>
       </c>
       <c r="F6">
-        <v>1.078589027975139</v>
+        <v>1.111993909833081</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062710973115097</v>
+        <v>1.05435954435607</v>
       </c>
       <c r="J6">
-        <v>1.077202804615402</v>
+        <v>1.101534037470923</v>
       </c>
       <c r="K6">
-        <v>1.081960444137178</v>
+        <v>1.108611773963102</v>
       </c>
       <c r="L6">
-        <v>1.076284508011176</v>
+        <v>1.101544282223999</v>
       </c>
       <c r="M6">
-        <v>1.087585958573157</v>
+        <v>1.114243798018556</v>
       </c>
       <c r="N6">
-        <v>1.078732556154845</v>
+        <v>1.103098342151852</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.057158895770535</v>
+        <v>1.096855280887884</v>
       </c>
       <c r="D7">
-        <v>1.070547701514495</v>
+        <v>1.105845211285833</v>
       </c>
       <c r="E7">
-        <v>1.064958650791803</v>
+        <v>1.098793837914427</v>
       </c>
       <c r="F7">
-        <v>1.076244516958484</v>
+        <v>1.111491528806858</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061989054813637</v>
+        <v>1.054239869373582</v>
       </c>
       <c r="J7">
-        <v>1.075199863483336</v>
+        <v>1.101111540243578</v>
       </c>
       <c r="K7">
-        <v>1.079860445599533</v>
+        <v>1.108163851625938</v>
       </c>
       <c r="L7">
-        <v>1.074328782688396</v>
+        <v>1.101128082255419</v>
       </c>
       <c r="M7">
-        <v>1.085499513207119</v>
+        <v>1.11379782690961</v>
       </c>
       <c r="N7">
-        <v>1.076726770616631</v>
+        <v>1.102675244929983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.046201022338785</v>
+        <v>1.094641874134084</v>
       </c>
       <c r="D8">
-        <v>1.060376291389804</v>
+        <v>1.103732629115209</v>
       </c>
       <c r="E8">
-        <v>1.055407655471214</v>
+        <v>1.096812493344102</v>
       </c>
       <c r="F8">
-        <v>1.066142315393816</v>
+        <v>1.109388565586733</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058845043215313</v>
+        <v>1.053735131192117</v>
       </c>
       <c r="J8">
-        <v>1.06654893955149</v>
+        <v>1.099340963498368</v>
       </c>
       <c r="K8">
-        <v>1.070796121417899</v>
+        <v>1.106287391330774</v>
       </c>
       <c r="L8">
-        <v>1.065885970015924</v>
+        <v>1.099384235950328</v>
       </c>
       <c r="M8">
-        <v>1.076495119418243</v>
+        <v>1.111929618555089</v>
       </c>
       <c r="N8">
-        <v>1.068063561380526</v>
+        <v>1.100902153762706</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.025423422874763</v>
+        <v>1.090726714626169</v>
       </c>
       <c r="D9">
-        <v>1.041134494433282</v>
+        <v>1.099997301049443</v>
       </c>
       <c r="E9">
-        <v>1.037344011181609</v>
+        <v>1.093308672835268</v>
       </c>
       <c r="F9">
-        <v>1.04703922033929</v>
+        <v>1.105670588134645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052772167729729</v>
+        <v>1.052828499335357</v>
       </c>
       <c r="J9">
-        <v>1.050109286964942</v>
+        <v>1.096203039516163</v>
       </c>
       <c r="K9">
-        <v>1.05359367278551</v>
+        <v>1.102964333699997</v>
       </c>
       <c r="L9">
-        <v>1.049858930246424</v>
+        <v>1.096294977101244</v>
       </c>
       <c r="M9">
-        <v>1.059412585960555</v>
+        <v>1.108621473033312</v>
       </c>
       <c r="N9">
-        <v>1.051600562601651</v>
+        <v>1.097759773568523</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.010377060015011</v>
+        <v>1.088105940282578</v>
       </c>
       <c r="D10">
-        <v>1.0272375826899</v>
+        <v>1.097497946397713</v>
       </c>
       <c r="E10">
-        <v>1.024302633988747</v>
+        <v>1.090963869910482</v>
       </c>
       <c r="F10">
-        <v>1.033248755475388</v>
+        <v>1.103183080182829</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048303187263292</v>
+        <v>1.052212317047054</v>
       </c>
       <c r="J10">
-        <v>1.038184926956139</v>
+        <v>1.094098485216088</v>
       </c>
       <c r="K10">
-        <v>1.04113187303778</v>
+        <v>1.100737310210295</v>
       </c>
       <c r="L10">
-        <v>1.03824653598711</v>
+        <v>1.094223936871406</v>
       </c>
       <c r="M10">
-        <v>1.047042567193626</v>
+        <v>1.106404648718684</v>
       </c>
       <c r="N10">
-        <v>1.039659268633892</v>
+        <v>1.095652230559945</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.003522551078126</v>
+        <v>1.086968433542793</v>
       </c>
       <c r="D11">
-        <v>1.02091738968984</v>
+        <v>1.096413395947166</v>
       </c>
       <c r="E11">
-        <v>1.018373055153512</v>
+        <v>1.089946302729332</v>
       </c>
       <c r="F11">
-        <v>1.026978721559116</v>
+        <v>1.102103728057899</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046251641801889</v>
+        <v>1.051942672326773</v>
       </c>
       <c r="J11">
-        <v>1.03274951851567</v>
+        <v>1.093184078887146</v>
       </c>
       <c r="K11">
-        <v>1.035455329232804</v>
+        <v>1.099770095130398</v>
       </c>
       <c r="L11">
-        <v>1.032956605593746</v>
+        <v>1.093324300910047</v>
       </c>
       <c r="M11">
-        <v>1.041409183154715</v>
+        <v>1.105441912961493</v>
       </c>
       <c r="N11">
-        <v>1.034216141289987</v>
+        <v>1.094736525669132</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.000919836127043</v>
+        <v>1.086545494935528</v>
       </c>
       <c r="D12">
-        <v>1.018519341588392</v>
+        <v>1.096010186313626</v>
       </c>
       <c r="E12">
-        <v>1.016123487216601</v>
+        <v>1.08956798374906</v>
       </c>
       <c r="F12">
-        <v>1.024599993315111</v>
+        <v>1.101702459817645</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045470424337576</v>
+        <v>1.051842084903612</v>
       </c>
       <c r="J12">
-        <v>1.030685317789608</v>
+        <v>1.092843948310732</v>
       </c>
       <c r="K12">
-        <v>1.03330013769591</v>
+        <v>1.099410381895123</v>
       </c>
       <c r="L12">
-        <v>1.030948171412099</v>
+        <v>1.092989695938008</v>
       </c>
       <c r="M12">
-        <v>1.039270599398801</v>
+        <v>1.105083873170308</v>
       </c>
       <c r="N12">
-        <v>1.032149009162128</v>
+        <v>1.094395912068286</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.001480791308398</v>
+        <v>1.086636235828943</v>
       </c>
       <c r="D13">
-        <v>1.019036102010793</v>
+        <v>1.096096692597855</v>
       </c>
       <c r="E13">
-        <v>1.016608238386237</v>
+        <v>1.08964915043332</v>
       </c>
       <c r="F13">
-        <v>1.025112577011977</v>
+        <v>1.101788549187989</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045638896096417</v>
+        <v>1.051863680735855</v>
       </c>
       <c r="J13">
-        <v>1.031130221020924</v>
+        <v>1.092916929335958</v>
       </c>
       <c r="K13">
-        <v>1.033764625920906</v>
+        <v>1.09948756198607</v>
       </c>
       <c r="L13">
-        <v>1.031381031270329</v>
+        <v>1.093061489920743</v>
       </c>
       <c r="M13">
-        <v>1.039731497992273</v>
+        <v>1.105160693863763</v>
       </c>
       <c r="N13">
-        <v>1.032594544207063</v>
+        <v>1.094468996734939</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.003308601313574</v>
+        <v>1.086933481908492</v>
       </c>
       <c r="D14">
-        <v>1.020720226837308</v>
+        <v>1.096380073911148</v>
       </c>
       <c r="E14">
-        <v>1.018188094303623</v>
+        <v>1.089915037951713</v>
       </c>
       <c r="F14">
-        <v>1.026783141149522</v>
+        <v>1.10207056628266</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046187468112578</v>
+        <v>1.051934366519119</v>
       </c>
       <c r="J14">
-        <v>1.032579841775821</v>
+        <v>1.093155973427561</v>
       </c>
       <c r="K14">
-        <v>1.035278161176092</v>
+        <v>1.099740370293904</v>
       </c>
       <c r="L14">
-        <v>1.0327915021837</v>
+        <v>1.093296651396065</v>
       </c>
       <c r="M14">
-        <v>1.041233375743962</v>
+        <v>1.105412326255165</v>
       </c>
       <c r="N14">
-        <v>1.034046223589706</v>
+        <v>1.094708380296571</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.004427084883089</v>
+        <v>1.087116569248528</v>
       </c>
       <c r="D15">
-        <v>1.02175102549724</v>
+        <v>1.096554626526209</v>
       </c>
       <c r="E15">
-        <v>1.019155110217146</v>
+        <v>1.090078813424742</v>
       </c>
       <c r="F15">
-        <v>1.027805678407341</v>
+        <v>1.102244279755255</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046522864762347</v>
+        <v>1.051977861358373</v>
       </c>
       <c r="J15">
-        <v>1.033466862953214</v>
+        <v>1.093303192546015</v>
       </c>
       <c r="K15">
-        <v>1.036204368591965</v>
+        <v>1.099896074343657</v>
       </c>
       <c r="L15">
-        <v>1.033654636515038</v>
+        <v>1.093441483516784</v>
       </c>
       <c r="M15">
-        <v>1.042152479016438</v>
+        <v>1.10556730706402</v>
       </c>
       <c r="N15">
-        <v>1.034934504438913</v>
+        <v>1.09485580848306</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.010824357951527</v>
+        <v>1.088181374972699</v>
       </c>
       <c r="D16">
-        <v>1.027650247992959</v>
+        <v>1.097569874698615</v>
       </c>
       <c r="E16">
-        <v>1.024689829718168</v>
+        <v>1.091031354118858</v>
       </c>
       <c r="F16">
-        <v>1.033658183891405</v>
+        <v>1.103254664950326</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048436749866123</v>
+        <v>1.052230152466485</v>
       </c>
       <c r="J16">
-        <v>1.038539566528687</v>
+        <v>1.094159104711094</v>
       </c>
       <c r="K16">
-        <v>1.041502325662913</v>
+        <v>1.100801439077218</v>
       </c>
       <c r="L16">
-        <v>1.038591753386281</v>
+        <v>1.094283581586183</v>
       </c>
       <c r="M16">
-        <v>1.04741023258452</v>
+        <v>1.106468481648708</v>
       </c>
       <c r="N16">
-        <v>1.040014411835311</v>
+        <v>1.095712936141588</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.014742614906673</v>
+        <v>1.088848568894705</v>
       </c>
       <c r="D17">
-        <v>1.031266347487517</v>
+        <v>1.098206085434989</v>
       </c>
       <c r="E17">
-        <v>1.028082920632131</v>
+        <v>1.091628247146318</v>
       </c>
       <c r="F17">
-        <v>1.03724611859668</v>
+        <v>1.103887843778737</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049604989236794</v>
+        <v>1.052387646790986</v>
       </c>
       <c r="J17">
-        <v>1.041645811609583</v>
+        <v>1.094695152959098</v>
       </c>
       <c r="K17">
-        <v>1.044747508017374</v>
+        <v>1.101368566578696</v>
       </c>
       <c r="L17">
-        <v>1.041615841797321</v>
+        <v>1.094811034111558</v>
       </c>
       <c r="M17">
-        <v>1.050631152582334</v>
+        <v>1.10703299776138</v>
       </c>
       <c r="N17">
-        <v>1.043125068140512</v>
+        <v>1.096249745639589</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.016995752406299</v>
+        <v>1.089237472771762</v>
       </c>
       <c r="D18">
-        <v>1.033346719643583</v>
+        <v>1.098576953984</v>
       </c>
       <c r="E18">
-        <v>1.030035133927168</v>
+        <v>1.091976188201546</v>
       </c>
       <c r="F18">
-        <v>1.03931044922117</v>
+        <v>1.104256950475458</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050275294477411</v>
+        <v>1.05247923740014</v>
       </c>
       <c r="J18">
-        <v>1.043431707744216</v>
+        <v>1.095007520474191</v>
       </c>
       <c r="K18">
-        <v>1.04661364325064</v>
+        <v>1.101699083466043</v>
       </c>
       <c r="L18">
-        <v>1.043354807630436</v>
+        <v>1.095118412807447</v>
       </c>
       <c r="M18">
-        <v>1.052483461023102</v>
+        <v>1.107361997538945</v>
       </c>
       <c r="N18">
-        <v>1.044913500452502</v>
+        <v>1.096562556752383</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.017758690965663</v>
+        <v>1.089370035401486</v>
       </c>
       <c r="D19">
-        <v>1.034051320209539</v>
+        <v>1.098703373204112</v>
       </c>
       <c r="E19">
-        <v>1.030696350989536</v>
+        <v>1.092094790706713</v>
       </c>
       <c r="F19">
-        <v>1.040009643453319</v>
+        <v>1.104382770064525</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050502014159583</v>
+        <v>1.05251042120658</v>
       </c>
       <c r="J19">
-        <v>1.044036377181822</v>
+        <v>1.09511397909581</v>
       </c>
       <c r="K19">
-        <v>1.04724554074451</v>
+        <v>1.10181173419044</v>
       </c>
       <c r="L19">
-        <v>1.043943638350163</v>
+        <v>1.0952231745859</v>
       </c>
       <c r="M19">
-        <v>1.053110697328462</v>
+        <v>1.1074741319928</v>
       </c>
       <c r="N19">
-        <v>1.045519028590067</v>
+        <v>1.096669166557455</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.014325603729264</v>
+        <v>1.088777012191256</v>
       </c>
       <c r="D20">
-        <v>1.030881390513177</v>
+        <v>1.098137849133865</v>
       </c>
       <c r="E20">
-        <v>1.027721689534194</v>
+        <v>1.091564228650801</v>
       </c>
       <c r="F20">
-        <v>1.036864142940273</v>
+        <v>1.103819932087717</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049480808653861</v>
+        <v>1.052370777421585</v>
       </c>
       <c r="J20">
-        <v>1.041315251837495</v>
+        <v>1.094637671198979</v>
       </c>
       <c r="K20">
-        <v>1.044402125469235</v>
+        <v>1.101307748101158</v>
       </c>
       <c r="L20">
-        <v>1.041293993100245</v>
+        <v>1.094754472010699</v>
       </c>
       <c r="M20">
-        <v>1.050288339115625</v>
+        <v>1.106972458832255</v>
       </c>
       <c r="N20">
-        <v>1.042794038935634</v>
+        <v>1.096192182248777</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.002771970450938</v>
+        <v>1.086845961990898</v>
       </c>
       <c r="D21">
-        <v>1.020225730359795</v>
+        <v>1.09629663519096</v>
       </c>
       <c r="E21">
-        <v>1.017724205698447</v>
+        <v>1.089836750432716</v>
       </c>
       <c r="F21">
-        <v>1.026292618259531</v>
+        <v>1.101987528999339</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046026471696829</v>
+        <v>1.05191356319976</v>
       </c>
       <c r="J21">
-        <v>1.032154252160458</v>
+        <v>1.093085594218211</v>
       </c>
       <c r="K21">
-        <v>1.034833790982601</v>
+        <v>1.09966593696178</v>
       </c>
       <c r="L21">
-        <v>1.0323773919921</v>
+        <v>1.093227414434308</v>
       </c>
       <c r="M21">
-        <v>1.040792421927011</v>
+        <v>1.105338238934177</v>
       </c>
       <c r="N21">
-        <v>1.033620029588273</v>
+        <v>1.094637901140671</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9951765172753004</v>
+        <v>1.085629409299247</v>
       </c>
       <c r="D22">
-        <v>1.013231168516638</v>
+        <v>1.095136906174486</v>
       </c>
       <c r="E22">
-        <v>1.011163294366962</v>
+        <v>1.088748590361782</v>
       </c>
       <c r="F22">
-        <v>1.019354988307968</v>
+        <v>1.100833400584868</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043742574796003</v>
+        <v>1.051623608454852</v>
       </c>
       <c r="J22">
-        <v>1.026129887411396</v>
+        <v>1.092106963143874</v>
       </c>
       <c r="K22">
-        <v>1.028544992580745</v>
+        <v>1.098631076406007</v>
       </c>
       <c r="L22">
-        <v>1.026516801250683</v>
+        <v>1.092264741232401</v>
       </c>
       <c r="M22">
-        <v>1.034552529057605</v>
+        <v>1.104308207054554</v>
       </c>
       <c r="N22">
-        <v>1.027587109550263</v>
+        <v>1.093657880297958</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9992365415746602</v>
+        <v>1.086274561174724</v>
       </c>
       <c r="D23">
-        <v>1.016968941632723</v>
+        <v>1.095751902026145</v>
       </c>
       <c r="E23">
-        <v>1.014669165626281</v>
+        <v>1.089325640298095</v>
       </c>
       <c r="F23">
-        <v>1.023062168916889</v>
+        <v>1.101445421616886</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044964564027317</v>
+        <v>1.051777555818881</v>
       </c>
       <c r="J23">
-        <v>1.029350231681259</v>
+        <v>1.092626020923385</v>
       </c>
       <c r="K23">
-        <v>1.031906366455361</v>
+        <v>1.099179924618131</v>
       </c>
       <c r="L23">
-        <v>1.029649303853264</v>
+        <v>1.092775317777535</v>
       </c>
       <c r="M23">
-        <v>1.037887633451386</v>
+        <v>1.10485449015571</v>
       </c>
       <c r="N23">
-        <v>1.030812027078368</v>
+        <v>1.094177675199052</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.014514132576773</v>
+        <v>1.088809346385917</v>
       </c>
       <c r="D24">
-        <v>1.031055424749722</v>
+        <v>1.098168682868478</v>
       </c>
       <c r="E24">
-        <v>1.027884997166956</v>
+        <v>1.091593156522513</v>
       </c>
       <c r="F24">
-        <v>1.037036828858853</v>
+        <v>1.103850619124587</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049536954719482</v>
+        <v>1.052378400807592</v>
       </c>
       <c r="J24">
-        <v>1.04146469736013</v>
+        <v>1.094663645660266</v>
       </c>
       <c r="K24">
-        <v>1.044558271229031</v>
+        <v>1.101335230215399</v>
       </c>
       <c r="L24">
-        <v>1.041439499415143</v>
+        <v>1.09478003084056</v>
       </c>
       <c r="M24">
-        <v>1.050443323018305</v>
+        <v>1.106999814611854</v>
       </c>
       <c r="N24">
-        <v>1.042943696688052</v>
+        <v>1.096218193596779</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.030988640232924</v>
+        <v>1.091740707246738</v>
       </c>
       <c r="D25">
-        <v>1.046282565715424</v>
+        <v>1.100964538496544</v>
       </c>
       <c r="E25">
-        <v>1.042176207153203</v>
+        <v>1.094216025756918</v>
       </c>
       <c r="F25">
-        <v>1.052149193444766</v>
+        <v>1.10663329149523</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054411201315847</v>
+        <v>1.053064944758912</v>
       </c>
       <c r="J25">
-        <v>1.054516298805047</v>
+        <v>1.097016449768948</v>
       </c>
       <c r="K25">
-        <v>1.058202509057197</v>
+        <v>1.103825435989421</v>
       </c>
       <c r="L25">
-        <v>1.054153262320573</v>
+        <v>1.097095619017351</v>
       </c>
       <c r="M25">
-        <v>1.063988516703328</v>
+        <v>1.109478675359149</v>
       </c>
       <c r="N25">
-        <v>1.056013832904061</v>
+        <v>1.098574338957165</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_185/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_185/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.094071069442351</v>
+        <v>1.043287092105101</v>
       </c>
       <c r="D2">
-        <v>1.103187924996851</v>
+        <v>1.057674211280318</v>
       </c>
       <c r="E2">
-        <v>1.096301590472927</v>
+        <v>1.0528706365395</v>
       </c>
       <c r="F2">
-        <v>1.108846364610936</v>
+        <v>1.063459102051751</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053604028957512</v>
+        <v>1.058001515831832</v>
       </c>
       <c r="J2">
-        <v>1.098883946698112</v>
+        <v>1.064245920721201</v>
       </c>
       <c r="K2">
-        <v>1.105803214681202</v>
+        <v>1.068384536484009</v>
       </c>
       <c r="L2">
-        <v>1.098934205993554</v>
+        <v>1.063639447617445</v>
       </c>
       <c r="M2">
-        <v>1.111447591181064</v>
+        <v>1.074099863175276</v>
       </c>
       <c r="N2">
-        <v>1.100444487946174</v>
+        <v>1.065757271999339</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.095758898455463</v>
+        <v>1.051797423396646</v>
       </c>
       <c r="D3">
-        <v>1.104798694076407</v>
+        <v>1.065569021314287</v>
       </c>
       <c r="E3">
-        <v>1.097812361163865</v>
+        <v>1.060283478873768</v>
       </c>
       <c r="F3">
-        <v>1.110449758719594</v>
+        <v>1.071299353476835</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053990585244522</v>
+        <v>1.060456545293962</v>
       </c>
       <c r="J3">
-        <v>1.100234829013666</v>
+        <v>1.07096915977485</v>
       </c>
       <c r="K3">
-        <v>1.107234578643671</v>
+        <v>1.075426430001913</v>
       </c>
       <c r="L3">
-        <v>1.100264538837072</v>
+        <v>1.070199025626141</v>
       </c>
       <c r="M3">
-        <v>1.112872624939537</v>
+        <v>1.08109452643921</v>
       </c>
       <c r="N3">
-        <v>1.101797288669565</v>
+        <v>1.07249005882361</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.09684916059328</v>
+        <v>1.057129318293124</v>
       </c>
       <c r="D4">
-        <v>1.105839368930465</v>
+        <v>1.070520225243149</v>
       </c>
       <c r="E4">
-        <v>1.098788358818665</v>
+        <v>1.064932848695944</v>
       </c>
       <c r="F4">
-        <v>1.111485712854964</v>
+        <v>1.076217223754198</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054238481853003</v>
+        <v>1.06198063270032</v>
       </c>
       <c r="J4">
-        <v>1.101106647990318</v>
+        <v>1.075176535621016</v>
       </c>
       <c r="K4">
-        <v>1.108158665330631</v>
+        <v>1.079835990437441</v>
       </c>
       <c r="L4">
-        <v>1.10112326310644</v>
+        <v>1.074306006951717</v>
       </c>
       <c r="M4">
-        <v>1.113792663249054</v>
+        <v>1.085475216620236</v>
       </c>
       <c r="N4">
-        <v>1.102670345729162</v>
+        <v>1.07670340962607</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.097307068447647</v>
+        <v>1.059331544454471</v>
       </c>
       <c r="D5">
-        <v>1.106276495064707</v>
+        <v>1.072566322754055</v>
       </c>
       <c r="E5">
-        <v>1.099198300749229</v>
+        <v>1.066854297302996</v>
       </c>
       <c r="F5">
-        <v>1.111920866537427</v>
+        <v>1.078249746818936</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054342166342648</v>
+        <v>1.06260669359626</v>
       </c>
       <c r="J5">
-        <v>1.101472620504057</v>
+        <v>1.076913069434892</v>
       </c>
       <c r="K5">
-        <v>1.108546657153148</v>
+        <v>1.081656636183844</v>
       </c>
       <c r="L5">
-        <v>1.10148377868933</v>
+        <v>1.076001579439861</v>
       </c>
       <c r="M5">
-        <v>1.114178964418706</v>
+        <v>1.087284103525339</v>
       </c>
       <c r="N5">
-        <v>1.103036837965848</v>
+        <v>1.078442409517145</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.097383927798638</v>
+        <v>1.059699073240584</v>
       </c>
       <c r="D6">
-        <v>1.106349868836592</v>
+        <v>1.072907858256913</v>
       </c>
       <c r="E6">
-        <v>1.099267110510061</v>
+        <v>1.06717503083404</v>
       </c>
       <c r="F6">
-        <v>1.111993909833081</v>
+        <v>1.078589027975139</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05435954435607</v>
+        <v>1.062710973115097</v>
       </c>
       <c r="J6">
-        <v>1.101534037470923</v>
+        <v>1.077202804615402</v>
       </c>
       <c r="K6">
-        <v>1.108611773963102</v>
+        <v>1.081960444137178</v>
       </c>
       <c r="L6">
-        <v>1.101544282223999</v>
+        <v>1.076284508011176</v>
       </c>
       <c r="M6">
-        <v>1.114243798018556</v>
+        <v>1.087585958573157</v>
       </c>
       <c r="N6">
-        <v>1.103098342151852</v>
+        <v>1.078732556154845</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.096855280887884</v>
+        <v>1.057158895770533</v>
       </c>
       <c r="D7">
-        <v>1.105845211285833</v>
+        <v>1.070547701514493</v>
       </c>
       <c r="E7">
-        <v>1.098793837914427</v>
+        <v>1.064958650791801</v>
       </c>
       <c r="F7">
-        <v>1.111491528806858</v>
+        <v>1.076244516958481</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054239869373582</v>
+        <v>1.061989054813636</v>
       </c>
       <c r="J7">
-        <v>1.101111540243578</v>
+        <v>1.075199863483334</v>
       </c>
       <c r="K7">
-        <v>1.108163851625938</v>
+        <v>1.079860445599531</v>
       </c>
       <c r="L7">
-        <v>1.101128082255419</v>
+        <v>1.074328782688393</v>
       </c>
       <c r="M7">
-        <v>1.11379782690961</v>
+        <v>1.085499513207116</v>
       </c>
       <c r="N7">
-        <v>1.102675244929983</v>
+        <v>1.076726770616629</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.094641874134084</v>
+        <v>1.046201022338787</v>
       </c>
       <c r="D8">
-        <v>1.103732629115209</v>
+        <v>1.060376291389806</v>
       </c>
       <c r="E8">
-        <v>1.096812493344102</v>
+        <v>1.055407655471217</v>
       </c>
       <c r="F8">
-        <v>1.109388565586733</v>
+        <v>1.066142315393818</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053735131192117</v>
+        <v>1.058845043215314</v>
       </c>
       <c r="J8">
-        <v>1.099340963498368</v>
+        <v>1.066548939551492</v>
       </c>
       <c r="K8">
-        <v>1.106287391330774</v>
+        <v>1.070796121417902</v>
       </c>
       <c r="L8">
-        <v>1.099384235950328</v>
+        <v>1.065885970015926</v>
       </c>
       <c r="M8">
-        <v>1.111929618555089</v>
+        <v>1.076495119418245</v>
       </c>
       <c r="N8">
-        <v>1.100902153762706</v>
+        <v>1.068063561380528</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.090726714626169</v>
+        <v>1.025423422874763</v>
       </c>
       <c r="D9">
-        <v>1.099997301049443</v>
+        <v>1.041134494433282</v>
       </c>
       <c r="E9">
-        <v>1.093308672835268</v>
+        <v>1.037344011181608</v>
       </c>
       <c r="F9">
-        <v>1.105670588134645</v>
+        <v>1.04703922033929</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052828499335357</v>
+        <v>1.052772167729728</v>
       </c>
       <c r="J9">
-        <v>1.096203039516163</v>
+        <v>1.050109286964941</v>
       </c>
       <c r="K9">
-        <v>1.102964333699997</v>
+        <v>1.05359367278551</v>
       </c>
       <c r="L9">
-        <v>1.096294977101244</v>
+        <v>1.049858930246423</v>
       </c>
       <c r="M9">
-        <v>1.108621473033312</v>
+        <v>1.059412585960554</v>
       </c>
       <c r="N9">
-        <v>1.097759773568523</v>
+        <v>1.05160056260165</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.088105940282578</v>
+        <v>1.010377060015009</v>
       </c>
       <c r="D10">
-        <v>1.097497946397713</v>
+        <v>1.027237582689899</v>
       </c>
       <c r="E10">
-        <v>1.090963869910482</v>
+        <v>1.024302633988746</v>
       </c>
       <c r="F10">
-        <v>1.103183080182829</v>
+        <v>1.033248755475386</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052212317047054</v>
+        <v>1.048303187263291</v>
       </c>
       <c r="J10">
-        <v>1.094098485216088</v>
+        <v>1.038184926956137</v>
       </c>
       <c r="K10">
-        <v>1.100737310210295</v>
+        <v>1.041131873037779</v>
       </c>
       <c r="L10">
-        <v>1.094223936871406</v>
+        <v>1.038246535987109</v>
       </c>
       <c r="M10">
-        <v>1.106404648718684</v>
+        <v>1.047042567193625</v>
       </c>
       <c r="N10">
-        <v>1.095652230559945</v>
+        <v>1.039659268633891</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.086968433542793</v>
+        <v>1.003522551078129</v>
       </c>
       <c r="D11">
-        <v>1.096413395947166</v>
+        <v>1.020917389689843</v>
       </c>
       <c r="E11">
-        <v>1.089946302729332</v>
+        <v>1.018373055153514</v>
       </c>
       <c r="F11">
-        <v>1.102103728057899</v>
+        <v>1.026978721559119</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051942672326773</v>
+        <v>1.04625164180189</v>
       </c>
       <c r="J11">
-        <v>1.093184078887146</v>
+        <v>1.032749518515672</v>
       </c>
       <c r="K11">
-        <v>1.099770095130398</v>
+        <v>1.035455329232807</v>
       </c>
       <c r="L11">
-        <v>1.093324300910047</v>
+        <v>1.032956605593748</v>
       </c>
       <c r="M11">
-        <v>1.105441912961493</v>
+        <v>1.041409183154718</v>
       </c>
       <c r="N11">
-        <v>1.094736525669132</v>
+        <v>1.03421614128999</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.086545494935528</v>
+        <v>1.000919836127044</v>
       </c>
       <c r="D12">
-        <v>1.096010186313626</v>
+        <v>1.018519341588394</v>
       </c>
       <c r="E12">
-        <v>1.08956798374906</v>
+        <v>1.016123487216602</v>
       </c>
       <c r="F12">
-        <v>1.101702459817645</v>
+        <v>1.024599993315112</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051842084903612</v>
+        <v>1.045470424337576</v>
       </c>
       <c r="J12">
-        <v>1.092843948310732</v>
+        <v>1.03068531778961</v>
       </c>
       <c r="K12">
-        <v>1.099410381895123</v>
+        <v>1.033300137695911</v>
       </c>
       <c r="L12">
-        <v>1.092989695938008</v>
+        <v>1.0309481714121</v>
       </c>
       <c r="M12">
-        <v>1.105083873170308</v>
+        <v>1.039270599398802</v>
       </c>
       <c r="N12">
-        <v>1.094395912068286</v>
+        <v>1.032149009162129</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.086636235828943</v>
+        <v>1.001480791308395</v>
       </c>
       <c r="D13">
-        <v>1.096096692597855</v>
+        <v>1.019036102010791</v>
       </c>
       <c r="E13">
-        <v>1.08964915043332</v>
+        <v>1.016608238386234</v>
       </c>
       <c r="F13">
-        <v>1.101788549187989</v>
+        <v>1.025112577011975</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051863680735855</v>
+        <v>1.045638896096416</v>
       </c>
       <c r="J13">
-        <v>1.092916929335958</v>
+        <v>1.031130221020922</v>
       </c>
       <c r="K13">
-        <v>1.09948756198607</v>
+        <v>1.033764625920904</v>
       </c>
       <c r="L13">
-        <v>1.093061489920743</v>
+        <v>1.031381031270326</v>
       </c>
       <c r="M13">
-        <v>1.105160693863763</v>
+        <v>1.039731497992271</v>
       </c>
       <c r="N13">
-        <v>1.094468996734939</v>
+        <v>1.032594544207061</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.086933481908492</v>
+        <v>1.003308601313573</v>
       </c>
       <c r="D14">
-        <v>1.096380073911148</v>
+        <v>1.020720226837308</v>
       </c>
       <c r="E14">
-        <v>1.089915037951713</v>
+        <v>1.018188094303622</v>
       </c>
       <c r="F14">
-        <v>1.10207056628266</v>
+        <v>1.026783141149522</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051934366519119</v>
+        <v>1.046187468112578</v>
       </c>
       <c r="J14">
-        <v>1.093155973427561</v>
+        <v>1.03257984177582</v>
       </c>
       <c r="K14">
-        <v>1.099740370293904</v>
+        <v>1.035278161176092</v>
       </c>
       <c r="L14">
-        <v>1.093296651396065</v>
+        <v>1.0327915021837</v>
       </c>
       <c r="M14">
-        <v>1.105412326255165</v>
+        <v>1.041233375743962</v>
       </c>
       <c r="N14">
-        <v>1.094708380296571</v>
+        <v>1.034046223589705</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.087116569248528</v>
+        <v>1.004427084883092</v>
       </c>
       <c r="D15">
-        <v>1.096554626526209</v>
+        <v>1.021751025497243</v>
       </c>
       <c r="E15">
-        <v>1.090078813424742</v>
+        <v>1.019155110217149</v>
       </c>
       <c r="F15">
-        <v>1.102244279755255</v>
+        <v>1.027805678407345</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051977861358373</v>
+        <v>1.046522864762348</v>
       </c>
       <c r="J15">
-        <v>1.093303192546015</v>
+        <v>1.033466862953216</v>
       </c>
       <c r="K15">
-        <v>1.099896074343657</v>
+        <v>1.036204368591968</v>
       </c>
       <c r="L15">
-        <v>1.093441483516784</v>
+        <v>1.033654636515041</v>
       </c>
       <c r="M15">
-        <v>1.10556730706402</v>
+        <v>1.042152479016441</v>
       </c>
       <c r="N15">
-        <v>1.09485580848306</v>
+        <v>1.034934504438916</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.088181374972699</v>
+        <v>1.010824357951528</v>
       </c>
       <c r="D16">
-        <v>1.097569874698615</v>
+        <v>1.027650247992958</v>
       </c>
       <c r="E16">
-        <v>1.091031354118858</v>
+        <v>1.024689829718168</v>
       </c>
       <c r="F16">
-        <v>1.103254664950326</v>
+        <v>1.033658183891405</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052230152466485</v>
+        <v>1.048436749866123</v>
       </c>
       <c r="J16">
-        <v>1.094159104711094</v>
+        <v>1.038539566528687</v>
       </c>
       <c r="K16">
-        <v>1.100801439077218</v>
+        <v>1.041502325662913</v>
       </c>
       <c r="L16">
-        <v>1.094283581586183</v>
+        <v>1.038591753386281</v>
       </c>
       <c r="M16">
-        <v>1.106468481648708</v>
+        <v>1.04741023258452</v>
       </c>
       <c r="N16">
-        <v>1.095712936141588</v>
+        <v>1.040014411835311</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.088848568894705</v>
+        <v>1.014742614906671</v>
       </c>
       <c r="D17">
-        <v>1.098206085434989</v>
+        <v>1.031266347487515</v>
       </c>
       <c r="E17">
-        <v>1.091628247146318</v>
+        <v>1.028082920632129</v>
       </c>
       <c r="F17">
-        <v>1.103887843778737</v>
+        <v>1.037246118596678</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052387646790986</v>
+        <v>1.049604989236793</v>
       </c>
       <c r="J17">
-        <v>1.094695152959098</v>
+        <v>1.041645811609581</v>
       </c>
       <c r="K17">
-        <v>1.101368566578696</v>
+        <v>1.044747508017373</v>
       </c>
       <c r="L17">
-        <v>1.094811034111558</v>
+        <v>1.041615841797319</v>
       </c>
       <c r="M17">
-        <v>1.10703299776138</v>
+        <v>1.050631152582332</v>
       </c>
       <c r="N17">
-        <v>1.096249745639589</v>
+        <v>1.043125068140511</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.089237472771762</v>
+        <v>1.0169957524063</v>
       </c>
       <c r="D18">
-        <v>1.098576953984</v>
+        <v>1.033346719643584</v>
       </c>
       <c r="E18">
-        <v>1.091976188201546</v>
+        <v>1.030035133927169</v>
       </c>
       <c r="F18">
-        <v>1.104256950475458</v>
+        <v>1.039310449221171</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05247923740014</v>
+        <v>1.050275294477411</v>
       </c>
       <c r="J18">
-        <v>1.095007520474191</v>
+        <v>1.043431707744217</v>
       </c>
       <c r="K18">
-        <v>1.101699083466043</v>
+        <v>1.046613643250641</v>
       </c>
       <c r="L18">
-        <v>1.095118412807447</v>
+        <v>1.043354807630437</v>
       </c>
       <c r="M18">
-        <v>1.107361997538945</v>
+        <v>1.052483461023103</v>
       </c>
       <c r="N18">
-        <v>1.096562556752383</v>
+        <v>1.044913500452503</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.089370035401486</v>
+        <v>1.017758690965662</v>
       </c>
       <c r="D19">
-        <v>1.098703373204112</v>
+        <v>1.034051320209538</v>
       </c>
       <c r="E19">
-        <v>1.092094790706713</v>
+        <v>1.030696350989535</v>
       </c>
       <c r="F19">
-        <v>1.104382770064525</v>
+        <v>1.040009643453317</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05251042120658</v>
+        <v>1.050502014159582</v>
       </c>
       <c r="J19">
-        <v>1.09511397909581</v>
+        <v>1.044036377181821</v>
       </c>
       <c r="K19">
-        <v>1.10181173419044</v>
+        <v>1.047245540744509</v>
       </c>
       <c r="L19">
-        <v>1.0952231745859</v>
+        <v>1.043943638350162</v>
       </c>
       <c r="M19">
-        <v>1.1074741319928</v>
+        <v>1.053110697328461</v>
       </c>
       <c r="N19">
-        <v>1.096669166557455</v>
+        <v>1.045519028590065</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.088777012191256</v>
+        <v>1.014325603729265</v>
       </c>
       <c r="D20">
-        <v>1.098137849133865</v>
+        <v>1.030881390513178</v>
       </c>
       <c r="E20">
-        <v>1.091564228650801</v>
+        <v>1.027721689534195</v>
       </c>
       <c r="F20">
-        <v>1.103819932087717</v>
+        <v>1.036864142940274</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052370777421585</v>
+        <v>1.049480808653861</v>
       </c>
       <c r="J20">
-        <v>1.094637671198979</v>
+        <v>1.041315251837497</v>
       </c>
       <c r="K20">
-        <v>1.101307748101158</v>
+        <v>1.044402125469236</v>
       </c>
       <c r="L20">
-        <v>1.094754472010699</v>
+        <v>1.041293993100246</v>
       </c>
       <c r="M20">
-        <v>1.106972458832255</v>
+        <v>1.050288339115626</v>
       </c>
       <c r="N20">
-        <v>1.096192182248777</v>
+        <v>1.042794038935635</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.086845961990898</v>
+        <v>1.002771970450938</v>
       </c>
       <c r="D21">
-        <v>1.09629663519096</v>
+        <v>1.020225730359795</v>
       </c>
       <c r="E21">
-        <v>1.089836750432716</v>
+        <v>1.017724205698447</v>
       </c>
       <c r="F21">
-        <v>1.101987528999339</v>
+        <v>1.026292618259532</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05191356319976</v>
+        <v>1.04602647169683</v>
       </c>
       <c r="J21">
-        <v>1.093085594218211</v>
+        <v>1.032154252160458</v>
       </c>
       <c r="K21">
-        <v>1.09966593696178</v>
+        <v>1.034833790982602</v>
       </c>
       <c r="L21">
-        <v>1.093227414434308</v>
+        <v>1.032377391992101</v>
       </c>
       <c r="M21">
-        <v>1.105338238934177</v>
+        <v>1.040792421927011</v>
       </c>
       <c r="N21">
-        <v>1.094637901140671</v>
+        <v>1.033620029588274</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.085629409299247</v>
+        <v>0.9951765172752983</v>
       </c>
       <c r="D22">
-        <v>1.095136906174486</v>
+        <v>1.013231168516635</v>
       </c>
       <c r="E22">
-        <v>1.088748590361782</v>
+        <v>1.01116329436696</v>
       </c>
       <c r="F22">
-        <v>1.100833400584868</v>
+        <v>1.019354988307966</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051623608454852</v>
+        <v>1.043742574796002</v>
       </c>
       <c r="J22">
-        <v>1.092106963143874</v>
+        <v>1.026129887411394</v>
       </c>
       <c r="K22">
-        <v>1.098631076406007</v>
+        <v>1.028544992580742</v>
       </c>
       <c r="L22">
-        <v>1.092264741232401</v>
+        <v>1.026516801250681</v>
       </c>
       <c r="M22">
-        <v>1.104308207054554</v>
+        <v>1.034552529057602</v>
       </c>
       <c r="N22">
-        <v>1.093657880297958</v>
+        <v>1.027587109550261</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.086274561174724</v>
+        <v>0.9992365415746624</v>
       </c>
       <c r="D23">
-        <v>1.095751902026145</v>
+        <v>1.016968941632725</v>
       </c>
       <c r="E23">
-        <v>1.089325640298095</v>
+        <v>1.014669165626283</v>
       </c>
       <c r="F23">
-        <v>1.101445421616886</v>
+        <v>1.023062168916891</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051777555818881</v>
+        <v>1.044964564027318</v>
       </c>
       <c r="J23">
-        <v>1.092626020923385</v>
+        <v>1.029350231681261</v>
       </c>
       <c r="K23">
-        <v>1.099179924618131</v>
+        <v>1.031906366455363</v>
       </c>
       <c r="L23">
-        <v>1.092775317777535</v>
+        <v>1.029649303853266</v>
       </c>
       <c r="M23">
-        <v>1.10485449015571</v>
+        <v>1.037887633451388</v>
       </c>
       <c r="N23">
-        <v>1.094177675199052</v>
+        <v>1.030812027078371</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.088809346385917</v>
+        <v>1.014514132576771</v>
       </c>
       <c r="D24">
-        <v>1.098168682868478</v>
+        <v>1.031055424749719</v>
       </c>
       <c r="E24">
-        <v>1.091593156522513</v>
+        <v>1.027884997166954</v>
       </c>
       <c r="F24">
-        <v>1.103850619124587</v>
+        <v>1.037036828858851</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052378400807592</v>
+        <v>1.049536954719482</v>
       </c>
       <c r="J24">
-        <v>1.094663645660266</v>
+        <v>1.041464697360128</v>
       </c>
       <c r="K24">
-        <v>1.101335230215399</v>
+        <v>1.044558271229029</v>
       </c>
       <c r="L24">
-        <v>1.09478003084056</v>
+        <v>1.041439499415141</v>
       </c>
       <c r="M24">
-        <v>1.106999814611854</v>
+        <v>1.050443323018303</v>
       </c>
       <c r="N24">
-        <v>1.096218193596779</v>
+        <v>1.04294369668805</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.091740707246738</v>
+        <v>1.030988640232922</v>
       </c>
       <c r="D25">
-        <v>1.100964538496544</v>
+        <v>1.046282565715422</v>
       </c>
       <c r="E25">
-        <v>1.094216025756918</v>
+        <v>1.042176207153201</v>
       </c>
       <c r="F25">
-        <v>1.10663329149523</v>
+        <v>1.052149193444764</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053064944758912</v>
+        <v>1.054411201315847</v>
       </c>
       <c r="J25">
-        <v>1.097016449768948</v>
+        <v>1.054516298805046</v>
       </c>
       <c r="K25">
-        <v>1.103825435989421</v>
+        <v>1.058202509057196</v>
       </c>
       <c r="L25">
-        <v>1.097095619017351</v>
+        <v>1.054153262320572</v>
       </c>
       <c r="M25">
-        <v>1.109478675359149</v>
+        <v>1.063988516703326</v>
       </c>
       <c r="N25">
-        <v>1.098574338957165</v>
+        <v>1.05601383290406</v>
       </c>
     </row>
   </sheetData>
